--- a/PARTE_SECONDA/NPU_blocks.xlsx
+++ b/PARTE_SECONDA/NPU_blocks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Admin\Documents\LibriUniversitari\GitHub\Workshop_Innovative_Systems\PARTE_SECONDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72835C7D-3B27-4A71-B870-C80A9780267D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C8EB59-C00D-41CB-B083-CCED3B405ED7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>VHDL file</t>
   </si>
@@ -87,18 +87,28 @@
     <t>dp.vhd</t>
   </si>
   <si>
-    <t>Synchronous counter with generic paralleism,  asynchronous reset,  enable signal, synchronous clear and programmable terminal count.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(@cnt.m) + (@muxnto1_nbit.m)(synch clear) + (@add_sub + @or + @norn)(programmable tc)
+    <t xml:space="preserve">(@cnt.m) + (@muxnto1_nbit.m)(synch clear) + (@add_sub + @or + @(norn)(programmable tc)
 </t>
+  </si>
+  <si>
+    <t>✔</t>
+  </si>
+  <si>
+    <t>Synchronous counter with generic parallelism,  asynchronous reset,  enable signal, synchronous clear and programmable terminal count.</t>
+  </si>
+  <si>
+    <t>Combinational logic capable of performing rounding to nearest even,
+ the input and output parallelism is generic.</t>
+  </si>
+  <si>
+    <t>(@rca.m) +  3*(@muxnto1_nbit.m) + (@orn)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +118,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -160,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -183,6 +201,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -472,13 +493,13 @@
   <dimension ref="B2:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18" style="3" customWidth="1"/>
-    <col min="3" max="3" width="59.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="78.5546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="60" style="3" customWidth="1"/>
   </cols>
   <sheetData>
@@ -501,9 +522,12 @@
         <v>4</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="F3" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -512,9 +536,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
@@ -556,6 +589,7 @@
       <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="D13" s="9"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">

--- a/PARTE_SECONDA/NPU_blocks.xlsx
+++ b/PARTE_SECONDA/NPU_blocks.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Admin\Documents\LibriUniversitari\GitHub\Workshop_Innovative_Systems\PARTE_SECONDA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alessandro\Documents\GitHub\Workshop_Innovative_Systems\PARTE_SECONDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C8EB59-C00D-41CB-B083-CCED3B405ED7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72300FB-F6E2-4F3C-B843-44467A02CBF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>VHDL file</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>(@rca.m) +  3*(@muxnto1_nbit.m) + (@orn)</t>
+  </si>
+  <si>
+    <t>Sequential circuit capable of providing the correct address</t>
+  </si>
+  <si>
+    <t>4*(@rca.m) +  5*(@muxnto1_nbit.m) + (@or2) + 2*(@flip_flop)</t>
   </si>
 </sst>
 </file>
@@ -492,18 +498,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18" style="3" customWidth="1"/>
-    <col min="3" max="3" width="78.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="78.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="60" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -517,7 +523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
@@ -531,12 +537,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
@@ -550,68 +565,68 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="9"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>19</v>
       </c>

--- a/PARTE_SECONDA/NPU_blocks.xlsx
+++ b/PARTE_SECONDA/NPU_blocks.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alessandro\Documents\GitHub\Workshop_Innovative_Systems\PARTE_SECONDA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Admin\Documents\LibriUniversitari\GitHub\Workshop_Innovative_Systems\PARTE_SECONDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72300FB-F6E2-4F3C-B843-44467A02CBF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83B1E78-688D-4947-8CF2-E8D192B118A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>VHDL file</t>
   </si>
@@ -101,13 +101,28 @@
  the input and output parallelism is generic.</t>
   </si>
   <si>
-    <t>(@rca.m) +  3*(@muxnto1_nbit.m) + (@orn)</t>
-  </si>
-  <si>
     <t>Sequential circuit capable of providing the correct address</t>
   </si>
   <si>
     <t>4*(@rca.m) +  5*(@muxnto1_nbit.m) + (@or2) + 2*(@flip_flop)</t>
+  </si>
+  <si>
+    <t>(@rca.m) +  3*(@muxnto1_nbit.m) + (@orn.m)</t>
+  </si>
+  <si>
+    <t>Combinational logic capable of performing a quantization,
+ the input and output parallelism is generic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(@orn.m) + 3*(@nand.m) + (@nor.m) + n_O*(@muxnto1_nbit.m) </t>
+  </si>
+  <si>
+    <t>Sequential circuit that performs the sum of four quantities in
+three clock cycle, the data width is generic.</t>
+  </si>
+  <si>
+    <t>(@rca.m)(N+1) + (@rca.m)(N+2) + 2*(@register.m)(N+1) +
++ (@register.m)(N+1) + 3*(@muxnto1_nbit.m)</t>
   </si>
 </sst>
 </file>
@@ -184,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -209,6 +224,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -498,18 +519,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18" style="3" customWidth="1"/>
-    <col min="3" max="3" width="78.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="78.5546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="60" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -523,7 +544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
@@ -537,21 +558,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
@@ -559,74 +580,93 @@
         <v>23</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="C13" s="11"/>
       <c r="D13" s="9"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>19</v>
       </c>

--- a/PARTE_SECONDA/NPU_blocks.xlsx
+++ b/PARTE_SECONDA/NPU_blocks.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Admin\Documents\LibriUniversitari\GitHub\Workshop_Innovative_Systems\PARTE_SECONDA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alessandro\Documents\GitHub\Workshop_Innovative_Systems\PARTE_SECONDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83B1E78-688D-4947-8CF2-E8D192B118A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08600FA3-6C0F-4522-B1CB-97A42B399FD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>VHDL file</t>
   </si>
@@ -101,12 +101,6 @@
  the input and output parallelism is generic.</t>
   </si>
   <si>
-    <t>Sequential circuit capable of providing the correct address</t>
-  </si>
-  <si>
-    <t>4*(@rca.m) +  5*(@muxnto1_nbit.m) + (@or2) + 2*(@flip_flop)</t>
-  </si>
-  <si>
     <t>(@rca.m) +  3*(@muxnto1_nbit.m) + (@orn.m)</t>
   </si>
   <si>
@@ -123,6 +117,21 @@
   <si>
     <t>(@rca.m)(N+1) + (@rca.m)(N+2) + 2*(@register.m)(N+1) +
 + (@register.m)(N+1) + 3*(@muxnto1_nbit.m)</t>
+  </si>
+  <si>
+    <t>Sequential circuit (97 muxes are 2to1, 32 muxes are 128to1, decoder is 7to128 )</t>
+  </si>
+  <si>
+    <t>97*(@muxnto1_nbit.m) + 32*(@muxnto1_nbit.m) + 97*(@register) + (@decoder)</t>
+  </si>
+  <si>
+    <t>Sequential circuit capable of providing the correct address(all muxes are 2to1)</t>
+  </si>
+  <si>
+    <t>4*(@rca.m) +  5*(@muxnto1_nbit.m) + (@or2) + 2*(@register)</t>
+  </si>
+  <si>
+    <t>in corso</t>
   </si>
 </sst>
 </file>
@@ -519,18 +528,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18" style="3" customWidth="1"/>
-    <col min="3" max="3" width="78.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="78.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="60" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -544,7 +553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
@@ -558,21 +567,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
@@ -580,93 +589,105 @@
         <v>23</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="9"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C14" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>19</v>
       </c>

--- a/PARTE_SECONDA/NPU_blocks.xlsx
+++ b/PARTE_SECONDA/NPU_blocks.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alessandro\Documents\GitHub\Workshop_Innovative_Systems\PARTE_SECONDA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08600FA3-6C0F-4522-B1CB-97A42B399FD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E1883A-3030-45AA-91F1-82CC9A1086E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3240" yWindow="3240" windowWidth="17280" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>VHDL file</t>
   </si>
@@ -101,6 +101,9 @@
  the input and output parallelism is generic.</t>
   </si>
   <si>
+    <t>4*(@rca.m) +  5*(@muxnto1_nbit.m) + (@or2) + 2*(@flip_flop)</t>
+  </si>
+  <si>
     <t>(@rca.m) +  3*(@muxnto1_nbit.m) + (@orn.m)</t>
   </si>
   <si>
@@ -119,19 +122,33 @@
 + (@register.m)(N+1) + 3*(@muxnto1_nbit.m)</t>
   </si>
   <si>
+    <t>Sequential block with W relu blocks, W/2 pool and round blocks, plus 
+two muxes with N*W parallelism and a register on N*W bits.
+The input parallelism is (N+BG)*W.
+The output parallelism is N*W.</t>
+  </si>
+  <si>
+    <t>W*(@relu.m)(N+BG,N) + (W/2)*(@pool.m)(N,N+2) +
++ (N+2)*(@round.m)((N+2),N) + 2*(@muxnto1_nbit.m)(N*W) +
++ (@register.m)(N*W)</t>
+  </si>
+  <si>
+    <t>Sequential block with one multiplier, one adder, one multiplexer and one register.
+It performs the linear combination of inputs.
+The input parallelism is generic</t>
+  </si>
+  <si>
+    <t>(@mpy.m)(N) + (@rca.m)(2N) + (@muxnto1_nbit.m) + 
++ (@register.m)(2N)</t>
+  </si>
+  <si>
+    <t>Sequential circuit capable of providing the correct address(all muxes are 2to1)</t>
+  </si>
+  <si>
     <t>Sequential circuit (97 muxes are 2to1, 32 muxes are 128to1, decoder is 7to128 )</t>
   </si>
   <si>
     <t>97*(@muxnto1_nbit.m) + 32*(@muxnto1_nbit.m) + 97*(@register) + (@decoder)</t>
-  </si>
-  <si>
-    <t>Sequential circuit capable of providing the correct address(all muxes are 2to1)</t>
-  </si>
-  <si>
-    <t>4*(@rca.m) +  5*(@muxnto1_nbit.m) + (@or2) + 2*(@register)</t>
-  </si>
-  <si>
-    <t>in corso</t>
   </si>
 </sst>
 </file>
@@ -208,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -239,6 +256,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -528,18 +548,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18" style="3" customWidth="1"/>
-    <col min="3" max="3" width="78.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="78.5546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="60" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -553,7 +573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
@@ -567,21 +587,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
@@ -589,105 +609,120 @@
         <v>23</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="9"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>19</v>
       </c>

--- a/PARTE_SECONDA/NPU_blocks.xlsx
+++ b/PARTE_SECONDA/NPU_blocks.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alessandro\Documents\GitHub\Workshop_Innovative_Systems\PARTE_SECONDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E1883A-3030-45AA-91F1-82CC9A1086E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74C8D21-1810-4189-B5A2-B326BE86EB5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="3240" windowWidth="17280" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>VHDL file</t>
   </si>
@@ -149,6 +149,12 @@
   </si>
   <si>
     <t>97*(@muxnto1_nbit.m) + 32*(@muxnto1_nbit.m) + 97*(@register) + (@decoder)</t>
+  </si>
+  <si>
+    <t>Combinatorial circuit with 10 AND gates, 1 NOT gate and 8 mux2to1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21*(@nand.m) + 8*(@muxnto1_nbit.m) </t>
   </si>
 </sst>
 </file>
@@ -548,18 +554,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18" style="3" customWidth="1"/>
-    <col min="3" max="3" width="78.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="78.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="60" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -573,7 +579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
@@ -587,7 +593,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
@@ -601,7 +607,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
@@ -615,7 +621,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
@@ -629,7 +635,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
@@ -643,7 +649,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
@@ -657,22 +663,22 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
@@ -686,19 +692,25 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="9"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>16</v>
       </c>
@@ -712,17 +724,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>19</v>
       </c>

--- a/PARTE_SECONDA/NPU_blocks.xlsx
+++ b/PARTE_SECONDA/NPU_blocks.xlsx
@@ -8,24 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alessandro\Documents\GitHub\Workshop_Innovative_Systems\PARTE_SECONDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74C8D21-1810-4189-B5A2-B326BE86EB5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D885397-6CC1-4CCA-9ACD-C17535100764}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>VHDL file</t>
   </si>
@@ -155,6 +163,24 @@
   </si>
   <si>
     <t xml:space="preserve"> 21*(@nand.m) + 8*(@muxnto1_nbit.m) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @act_if + @act_rf + @register</t>
+  </si>
+  <si>
+    <t>Sequential circuit that includes the act_if and the act_rf blocks plus a register</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combinatorial circuit with 160 muxes 8to1 </t>
+  </si>
+  <si>
+    <t>160*(@muxnto1_nbit.m)</t>
+  </si>
+  <si>
+    <t>Sequential circuit with 48 mux 2to1 a decoder 3to8, 896 mux 8to1,  48 registers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">944*(@muxnto1_nbit.m) + 48*(@register)+ @decoder </t>
   </si>
 </sst>
 </file>
@@ -554,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,15 +694,33 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>11</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="C11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="2:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
@@ -709,6 +753,9 @@
       <c r="D14" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="F14" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="15" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
@@ -724,9 +771,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">

--- a/PARTE_SECONDA/NPU_blocks.xlsx
+++ b/PARTE_SECONDA/NPU_blocks.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alessandro\Documents\GitHub\Workshop_Innovative_Systems\PARTE_SECONDA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Admin\Documents\LibriUniversitari\GitHub\Workshop_Innovative_Systems\PARTE_SECONDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D885397-6CC1-4CCA-9ACD-C17535100764}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9442C275-488F-462A-B1CF-80E8140FE9DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
   <si>
     <t>VHDL file</t>
   </si>
@@ -580,18 +580,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18" style="3" customWidth="1"/>
-    <col min="3" max="3" width="78.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="78.5546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="60" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -605,7 +605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
@@ -619,7 +619,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
@@ -633,7 +633,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
@@ -647,7 +647,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
@@ -661,7 +661,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
@@ -675,7 +675,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
@@ -689,12 +689,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F9" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
@@ -708,7 +711,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
@@ -722,7 +725,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
@@ -736,14 +739,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F13" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>15</v>
       </c>
@@ -757,7 +763,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>16</v>
       </c>
@@ -771,7 +777,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>17</v>
       </c>
@@ -785,12 +791,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>19</v>
       </c>
